--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/time-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/time-series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B73AC05-606C-41F3-9643-FC75226A5ACB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75606C2-666A-4195-8D11-E5D46B9BA47E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{8EBDE02E-C1E0-4082-8363-F7353961B9DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{8EBDE02E-C1E0-4082-8363-F7353961B9DD}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>English Attribution</t>
   </si>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-03-02T10:01:15</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -230,30 +226,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -387,6 +359,58 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/time-series/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/time-series/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/time-series/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata5</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -790,18 +814,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -809,7 +833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -817,7 +841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -825,7 +849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -833,7 +857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -841,7 +865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -849,7 +873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -857,15 +881,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -873,17 +897,42 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -893,18 +942,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -924,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -936,7 +985,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -954,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -974,21 +1023,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1003,20 +1052,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1076,7 @@
         <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>22</v>
@@ -1054,7 +1103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1119,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1079,48 +1128,48 @@
         <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>28</v>
@@ -1138,24 +1187,24 @@
         <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1173,42 +1222,42 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1223,30 +1272,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1303,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1263,10 +1312,10 @@
         <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1277,18 +1326,18 @@
         <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1303,55 +1352,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1369,17 +1418,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1393,10 +1442,10 @@
         <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1405,7 +1454,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1417,10 +1466,10 @@
         <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1434,74 +1483,74 @@
         <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/time-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/time-series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75606C2-666A-4195-8D11-E5D46B9BA47E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152B2E30-47F8-46E1-BE6C-B96FB0A23865}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{8EBDE02E-C1E0-4082-8363-F7353961B9DD}"/>
   </bookViews>
@@ -65,18 +65,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -110,36 +98,21 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -222,22 +195,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -257,10 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/////////////////////////wAA////AP//AAAAAP///wD/AP////8AAP//////AP//AAD/AP//////AP////8A/////wD/AP//////AP////8A/////wD/AP//////AP///wD//////wD/AP//////AP///wD//////wD/AP//////AP//AP///////wD//wAA////AP//AAAAAP///wD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -289,58 +248,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Image:0</t>
   </si>
   <si>
@@ -411,6 +318,110 @@
   </si>
   <si>
     <t>bindata:bindata5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -827,106 +838,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -991,16 +1002,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1008,36 +1019,36 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1070,37 +1081,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -1125,34 +1136,34 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -1160,51 +1171,51 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1222,42 +1233,42 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1286,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1309,10 +1320,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1320,24 +1331,24 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1365,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1384,7 +1395,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1392,15 +1403,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1422,7 +1433,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1433,16 +1444,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1460,13 +1471,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1474,27 +1485,27 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
@@ -1502,13 +1513,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
@@ -1516,13 +1527,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
@@ -1530,13 +1541,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
@@ -1544,13 +1555,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>
